--- a/Task5/LibraryTestProject/Reports/ReportXslx.xlsx
+++ b/Task5/LibraryTestProject/Reports/ReportXslx.xlsx
@@ -12,21 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Chars</t>
+    <t>Harry Potter and the philosopher's stone</t>
   </si>
   <si>
-    <t>Length</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Alexsandr Pechkin, The Adventures of Sherlock Holmes, 21.05.2021 0:00:00, 05.06.2021 0:00:00</t>
+    <t>The Hound of the Baskervilles</t>
   </si>
   <si>
-    <t>Ivan Ivanov, The Stars, Like Dust, 02.06.2021 0:00:00, 21.09.2021 0:00:00</t>
+    <t>The Adventures of Sherlock Holmes</t>
   </si>
   <si>
-    <t>Ekaterina Ostapova, Scarlet Sails, 05.04.2021 0:00:00, 03.07.2021 0:00:00</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>The Stars, Like Dust</t>
+  </si>
+  <si>
+    <t>Scarlet Sails</t>
   </si>
 </sst>
 </file>
@@ -72,15 +78,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="85.57208251953125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -94,15 +96,32 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
